--- a/GW_seaweed_seasonality_transect_data_subtidal_aug2025.xlsx
+++ b/GW_seaweed_seasonality_transect_data_subtidal_aug2025.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Varoon P\OneDrive - UBC\Project - Seaweed Seasonality Transects\seaweed_seasonality_2021-09-05\git_GW_seaweed_seasonality_transects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7AC0DC-1B1E-4FAE-A8DC-AAD07857E949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -840,7 +840,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -849,9 +849,6 @@
     <xf numFmtId="2" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1211,7 +1208,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CU7" sqref="CU7"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3961,16 +3958,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:61" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="9"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
+    <row r="46" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="3"/>
@@ -4255,14 +4244,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9ec2d0b7-503f-4434-bd5e-691963e6366e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C107646D0035FA4C8F1F95DBA74C7670" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f1757c077ac40972b876cd5ccdf595ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9ec2d0b7-503f-4434-bd5e-691963e6366e" xmlns:ns4="a169fe49-86d9-4b9f-a163-9271c3e82536" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="315eec8d60efed50e87e3fc3108bb7d6" ns3:_="" ns4:_="">
     <xsd:import namespace="9ec2d0b7-503f-4434-bd5e-691963e6366e"/>
@@ -4515,6 +4496,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9ec2d0b7-503f-4434-bd5e-691963e6366e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4525,16 +4514,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E07FED4-9CAB-4D35-B6E3-4F76C1ACDD32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9ec2d0b7-503f-4434-bd5e-691963e6366e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFBE69FB-5B7A-431F-9647-BD3868909ADD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4553,6 +4532,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E07FED4-9CAB-4D35-B6E3-4F76C1ACDD32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9ec2d0b7-503f-4434-bd5e-691963e6366e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01C5801A-55FB-4B4B-B6DE-27DF63074F19}">
   <ds:schemaRefs>
